--- a/Log_Document/Log_book.xlsx
+++ b/Log_Document/Log_book.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>End of june exams</t>
+  </si>
+  <si>
+    <t>Updated domain objects, refine SQL, converted log to CSV, Created entities</t>
   </si>
 </sst>
 </file>
@@ -194,8 +197,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -228,8 +231,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,6 +1854,12 @@
         <v>41812</v>
       </c>
       <c r="C157" s="1"/>
+      <c r="D157" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="2">

--- a/Log_Document/Log_book.xlsx
+++ b/Log_Document/Log_book.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="193">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,411 @@
   </si>
   <si>
     <t>Updated domain objects, refine SQL, converted log to CSV, Created entities</t>
+  </si>
+  <si>
+    <t>Updated model, SQL, XML Entities, DB Entities, POM.xml</t>
+  </si>
+  <si>
+    <t>Added to User Account Management, Added DAOs, and Constants</t>
+  </si>
+  <si>
+    <t>Added AuditTrail, Notiification, Meeting Management</t>
+  </si>
+  <si>
+    <t>Created Integration Tests, in aid of development</t>
+  </si>
+  <si>
+    <t>Working on User Gateway</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Updated template and User Account Management</t>
+  </si>
+  <si>
+    <t>Completed Grant Holder, Session, updated SQL</t>
+  </si>
+  <si>
+    <t>Completed initial Dean's Endorsement, did Refractioring to packages</t>
+  </si>
+  <si>
+    <t>Started Report Services, added to Meeting Management</t>
+  </si>
+  <si>
+    <t>Added Entities Unit Tests</t>
+  </si>
+  <si>
+    <t>Added Dependencies, Updated meeting and Report Services</t>
+  </si>
+  <si>
+    <t>Completed Scrum Reports</t>
+  </si>
+  <si>
+    <t>Completed CV, Endorsement, Funding Report Tests</t>
+  </si>
+  <si>
+    <t>Added DBEntities Factory, Added Builder Factory, Integration of Notification. Refractored Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Export, Report Services </t>
+  </si>
+  <si>
+    <t>User Gateway</t>
+  </si>
+  <si>
+    <t>Created Unit Tests, Mock Classes</t>
+  </si>
+  <si>
+    <t>Updated User Gateway, added Login Page</t>
+  </si>
+  <si>
+    <t>Working on Archival Services</t>
+  </si>
+  <si>
+    <t>Code refractoring, completed referee service</t>
+  </si>
+  <si>
+    <t>Added scheduling to archival services</t>
+  </si>
+  <si>
+    <t>Added primefaces, fixed user gateway, changed session beans</t>
+  </si>
+  <si>
+    <t>Updated XML schemas</t>
+  </si>
+  <si>
+    <t>More functionality to Session Class, finished user accounts, login, and backing beans</t>
+  </si>
+  <si>
+    <t>Added Scrum Reports</t>
+  </si>
+  <si>
+    <t>Refactored Management beans and fixed bread crumbs</t>
+  </si>
+  <si>
+    <t>Notification, Audit Tests</t>
+  </si>
+  <si>
+    <t>Fixed navigation issues</t>
+  </si>
+  <si>
+    <t>Meeting management tests,</t>
+  </si>
+  <si>
+    <t>Added html pages</t>
+  </si>
+  <si>
+    <t>Made tests passable</t>
+  </si>
+  <si>
+    <t>Worked on user account management</t>
+  </si>
+  <si>
+    <t>Navigation update, refactored EJBs, themed bread crumbs</t>
+  </si>
+  <si>
+    <t>Refactored SQL scripts, application renewal</t>
+  </si>
+  <si>
+    <t>Added Renewable EJB</t>
+  </si>
+  <si>
+    <t>Added Activity Diagrams</t>
+  </si>
+  <si>
+    <t>Grant Holder, CV Management, DRIS Approval tests</t>
+  </si>
+  <si>
+    <t>Completed Application viewer, HOD pages, Dean's Endorsement pages</t>
+  </si>
+  <si>
+    <t>Updated new application wizard</t>
+  </si>
+  <si>
+    <t>Added Diagrams, adjusted DRIS Approval Service</t>
+  </si>
+  <si>
+    <t>On demand user creation, progress viewer</t>
+  </si>
+  <si>
+    <t>Did Activity diagrams for Application Progress Viewer</t>
+  </si>
+  <si>
+    <t>Fixed bugs in application status, refactored database</t>
+  </si>
+  <si>
+    <t>Added Model Files, Activity diagrams, unit tests</t>
+  </si>
+  <si>
+    <t>Reconfigured tests</t>
+  </si>
+  <si>
+    <t>Completed report services, on demand activation pages</t>
+  </si>
+  <si>
+    <t>Added Domain objects, diagrams</t>
+  </si>
+  <si>
+    <t>Added diagrams</t>
+  </si>
+  <si>
+    <t>Demo 2, and documents uploaded</t>
+  </si>
+  <si>
+    <t>Updated security cookies, refactored code, front end templates</t>
+  </si>
+  <si>
+    <t>Report functionality, jasper dependency</t>
+  </si>
+  <si>
+    <t>Meeting front end, AppsVSMUS work</t>
+  </si>
+  <si>
+    <t>Added to meeting management, still buggy</t>
+  </si>
+  <si>
+    <t>Report front end</t>
+  </si>
+  <si>
+    <t>Meeting management bugs fixed</t>
+  </si>
+  <si>
+    <t>Added progress viewer</t>
+  </si>
+  <si>
+    <t>Bugs with reports back end</t>
+  </si>
+  <si>
+    <t>Updated use case diagrams, domain objects</t>
+  </si>
+  <si>
+    <t>Unit Tests</t>
+  </si>
+  <si>
+    <t>More Unit tests</t>
+  </si>
+  <si>
+    <t>Completed griding for diagrams</t>
+  </si>
+  <si>
+    <t>Edited documentation, diagrams</t>
+  </si>
+  <si>
+    <t>Updated Interface Diagrams, updated report services</t>
+  </si>
+  <si>
+    <t>Added architectural specs and technologies</t>
+  </si>
+  <si>
+    <t>Added to tactics</t>
+  </si>
+  <si>
+    <t>Prep work on Import and Export services</t>
+  </si>
+  <si>
+    <t>Updated tests, completed quality requirements</t>
+  </si>
+  <si>
+    <t>Fixed SQL bugs, updated data flow</t>
+  </si>
+  <si>
+    <t>Updated Report UI</t>
+  </si>
+  <si>
+    <t>Updated Models</t>
+  </si>
+  <si>
+    <t>Implemented Report templates</t>
+  </si>
+  <si>
+    <t>Updated functional documentation, fixed compiler bugs and persistences units</t>
+  </si>
+  <si>
+    <t>Added diagrams, and updated testing document</t>
+  </si>
+  <si>
+    <t>Unit test documentation</t>
+  </si>
+  <si>
+    <t>Demo 3 and documents uploaded</t>
+  </si>
+  <si>
+    <t>Worked on Dynamic Jasper</t>
+  </si>
+  <si>
+    <t>Work on Archival services</t>
+  </si>
+  <si>
+    <t>Refactored DB and updated DB Entities</t>
+  </si>
+  <si>
+    <t>Application, and Person reports completed</t>
+  </si>
+  <si>
+    <t>Found bugs, refactored to fix</t>
+  </si>
+  <si>
+    <t>Front end and Back ends of reports completed</t>
+  </si>
+  <si>
+    <t>Debugged user creation bugs and front and back ends of the bread crumbs</t>
+  </si>
+  <si>
+    <t>Beans for archival services</t>
+  </si>
+  <si>
+    <t>Created on demand approval, removal functions of CVs</t>
+  </si>
+  <si>
+    <t>Fixed Bug in rewind, updated SQL entities</t>
+  </si>
+  <si>
+    <t>Updated EBJs as per Client's request</t>
+  </si>
+  <si>
+    <t>Included provisions for interceptors for unit tests</t>
+  </si>
+  <si>
+    <t>Updated Authentication Interceptors  and user gateway</t>
+  </si>
+  <si>
+    <t>Front for exports and imports</t>
+  </si>
+  <si>
+    <t>Updated referee reports, added interceptors for security</t>
+  </si>
+  <si>
+    <t>Started DRIS approval refactorings</t>
+  </si>
+  <si>
+    <t>Completed archival back up, fixed bugs</t>
+  </si>
+  <si>
+    <t>Updated DRIS with client specifications, updated Meeting Managements</t>
+  </si>
+  <si>
+    <t>Worked on dependencies found in the system</t>
+  </si>
+  <si>
+    <t>Debugged refactorings, updated notifications</t>
+  </si>
+  <si>
+    <t>Got Person entity working</t>
+  </si>
+  <si>
+    <t>Refined XML schemas</t>
+  </si>
+  <si>
+    <t>Application back up entities, person</t>
+  </si>
+  <si>
+    <t>Added Transaction, annotation refactorings</t>
+  </si>
+  <si>
+    <t>Updated EBJs and Daos</t>
+  </si>
+  <si>
+    <t>Completed Refactorings</t>
+  </si>
+  <si>
+    <t>Updated POM so files could update</t>
+  </si>
+  <si>
+    <t>Demo 4 and documents uploaded</t>
+  </si>
+  <si>
+    <t>Provisional Usability Test information</t>
+  </si>
+  <si>
+    <t>Created Announcements, changes to location front end</t>
+  </si>
+  <si>
+    <t>Started Internationalization</t>
+  </si>
+  <si>
+    <t>Editing User Acceptance tests</t>
+  </si>
+  <si>
+    <t>Updating Internationalization</t>
+  </si>
+  <si>
+    <t>Fixing Jasper back end, fixed interceptor bug</t>
+  </si>
+  <si>
+    <t>Fixed issue with security roles</t>
+  </si>
+  <si>
+    <t>UI changes, demo Data, internalization almost complete</t>
+  </si>
+  <si>
+    <t>Completed Location front end</t>
+  </si>
+  <si>
+    <t>Updated Unit and Integration tests</t>
+  </si>
+  <si>
+    <t>Added functionality to notification bar, fixed bugs in notifications</t>
+  </si>
+  <si>
+    <t>UI changes for password strength, added to internalization</t>
+  </si>
+  <si>
+    <t>Re-did reporting front end, updated report styling and fixed bugs</t>
+  </si>
+  <si>
+    <t>Chagned Bread crums menu, Add Jsoup for html scrapper</t>
+  </si>
+  <si>
+    <t>Internalization of all strings done</t>
+  </si>
+  <si>
+    <t>UI Updates</t>
+  </si>
+  <si>
+    <t>SQL Scripts updates</t>
+  </si>
+  <si>
+    <t>Completed Demo data</t>
+  </si>
+  <si>
+    <t>Editing Testing documentation</t>
+  </si>
+  <si>
+    <t>Completed Google scholar scrapper</t>
+  </si>
+  <si>
+    <t>Demo 5</t>
+  </si>
+  <si>
+    <t>Project Management Documents updated</t>
+  </si>
+  <si>
+    <t>Added SHA512 hashing to passwords</t>
+  </si>
+  <si>
+    <t>Refined Vision Scope, workflow diagram</t>
+  </si>
+  <si>
+    <t>Updated Interface diagrams</t>
+  </si>
+  <si>
+    <t>Updated use case diagrams, and functional  requirements</t>
+  </si>
+  <si>
+    <t>Added Brochure</t>
+  </si>
+  <si>
+    <t>Completed post conditions, use cases, software architecture, functional requirements</t>
+  </si>
+  <si>
+    <t>Updated models, diagrams, JSOUP to tech</t>
+  </si>
+  <si>
+    <t>Documentation iteration 5</t>
+  </si>
+  <si>
+    <t>Updated all notifications, that are sent, did hash refactorings</t>
   </si>
 </sst>
 </file>
@@ -243,6 +648,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -290,7 +698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +733,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E644"/>
+  <dimension ref="B3:E685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="B286" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,6 +2274,12 @@
         <v>41813</v>
       </c>
       <c r="C158" s="1"/>
+      <c r="D158" t="s">
+        <v>58</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
@@ -1878,2910 +2292,3960 @@
         <v>41815</v>
       </c>
       <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>60</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <v>41816</v>
       </c>
       <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>59</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="2">
         <v>41817</v>
       </c>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="2">
         <v>41818</v>
       </c>
       <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>61</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="2">
         <v>41819</v>
       </c>
       <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <v>41820</v>
       </c>
       <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <v>41821</v>
       </c>
       <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>65</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
         <v>41822</v>
       </c>
       <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>66</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="2">
         <v>41823</v>
       </c>
       <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="2">
         <v>41824</v>
       </c>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="2">
+      <c r="C170" s="1"/>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="2">
         <v>41825</v>
       </c>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="2">
+      <c r="C171" s="1"/>
+      <c r="D171" t="s">
+        <v>70</v>
+      </c>
+      <c r="E171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="2">
+        <v>41825</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" t="s">
+        <v>71</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2">
         <v>41826</v>
       </c>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="2">
+      <c r="C173" s="1"/>
+      <c r="D173" t="s">
+        <v>72</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="2">
         <v>41827</v>
       </c>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="2">
+      <c r="C174" s="1"/>
+      <c r="D174" t="s">
+        <v>73</v>
+      </c>
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="2">
+        <v>41827</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" t="s">
+        <v>74</v>
+      </c>
+      <c r="E175" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="2">
+        <v>41827</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" t="s">
+        <v>75</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="2">
         <v>41828</v>
       </c>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="2">
+      <c r="C177" s="1"/>
+      <c r="D177" t="s">
+        <v>76</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="2">
+        <v>41828</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" t="s">
+        <v>77</v>
+      </c>
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="2">
         <v>41829</v>
       </c>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="2">
+      <c r="C179" s="1"/>
+      <c r="D179" t="s">
+        <v>78</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="2">
         <v>41830</v>
       </c>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="2">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="2">
         <v>41831</v>
       </c>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="2">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="2">
         <v>41832</v>
       </c>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="2">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
         <v>41833</v>
       </c>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="2">
+      <c r="C183" s="1"/>
+      <c r="D183" t="s">
+        <v>79</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="2">
         <v>41834</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="2">
+      <c r="C184" s="1"/>
+      <c r="D184" t="s">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="2">
         <v>41835</v>
       </c>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="2">
+      <c r="C185" s="1"/>
+      <c r="D185" t="s">
+        <v>81</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="2">
         <v>41836</v>
       </c>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="2">
+      <c r="C186" s="1"/>
+      <c r="D186" t="s">
+        <v>82</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="2">
         <v>41837</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
+      <c r="C187" s="1"/>
+      <c r="D187" t="s">
+        <v>83</v>
+      </c>
+      <c r="E187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="2">
         <v>41837</v>
       </c>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="2">
-        <v>41837</v>
-      </c>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="2">
+      <c r="C188" s="1"/>
+      <c r="D188" t="s">
+        <v>84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="2">
         <v>41838</v>
       </c>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="2">
+      <c r="C189" s="1"/>
+      <c r="D189" t="s">
+        <v>85</v>
+      </c>
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="2">
+        <v>41838</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="2">
         <v>41839</v>
       </c>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="2">
+      <c r="C191" s="1"/>
+      <c r="D191" t="s">
+        <v>87</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="2">
         <v>41840</v>
       </c>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="2">
+      <c r="C192" s="1"/>
+      <c r="D192" t="s">
+        <v>88</v>
+      </c>
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="2">
+        <v>41840</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" t="s">
+        <v>89</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="2">
         <v>41841</v>
       </c>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="2">
+      <c r="C194" s="1"/>
+      <c r="D194" t="s">
+        <v>90</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="2">
         <v>41842</v>
       </c>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="2">
+      <c r="C195" s="1"/>
+      <c r="D195" t="s">
+        <v>91</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="2">
         <v>41843</v>
       </c>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="2">
+      <c r="C196" s="1"/>
+      <c r="D196" t="s">
+        <v>92</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="2">
         <v>41844</v>
       </c>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="2">
+      <c r="C197" s="1"/>
+      <c r="D197" t="s">
+        <v>93</v>
+      </c>
+      <c r="E197" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="2">
         <v>41845</v>
       </c>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="2">
+      <c r="C198" s="1"/>
+      <c r="D198" t="s">
+        <v>94</v>
+      </c>
+      <c r="E198" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="2">
+        <v>41845</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" t="s">
+        <v>95</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="2">
+        <v>41845</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="2">
         <v>41846</v>
       </c>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="2">
+      <c r="C201" s="1"/>
+      <c r="D201" t="s">
+        <v>97</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="2">
         <v>41847</v>
       </c>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
+      <c r="C202" s="1"/>
+      <c r="D202" t="s">
+        <v>98</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="2">
         <v>41848</v>
       </c>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="2">
+      <c r="C203" s="1"/>
+      <c r="D203" t="s">
+        <v>99</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="2">
         <v>41849</v>
       </c>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="2">
+      <c r="C204" s="1"/>
+      <c r="D204" t="s">
+        <v>100</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="2">
         <v>41850</v>
       </c>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="2">
+      <c r="C205" s="1"/>
+      <c r="D205" t="s">
+        <v>101</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="2">
         <v>41851</v>
       </c>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="2">
+      <c r="C206" s="1"/>
+      <c r="D206" t="s">
+        <v>102</v>
+      </c>
+      <c r="E206" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" t="s">
+        <v>103</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="2">
+        <v>41851</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="2">
         <v>41852</v>
       </c>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="2">
+      <c r="C209" s="1"/>
+      <c r="D209" t="s">
+        <v>105</v>
+      </c>
+      <c r="E209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" t="s">
+        <v>106</v>
+      </c>
+      <c r="E210" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" t="s">
+        <v>107</v>
+      </c>
+      <c r="E211" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="2">
         <v>41853</v>
       </c>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="2">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="2">
         <v>41854</v>
       </c>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="2">
+      <c r="C213" s="1"/>
+      <c r="D213" t="s">
+        <v>108</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="2">
         <v>41855</v>
       </c>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="2">
+      <c r="C214" s="1"/>
+      <c r="D214" t="s">
+        <v>109</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="2">
         <v>41856</v>
       </c>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="2">
+      <c r="C215" s="1"/>
+      <c r="D215" t="s">
+        <v>110</v>
+      </c>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="2">
         <v>41857</v>
       </c>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="2">
+      <c r="C216" s="1"/>
+      <c r="D216" t="s">
+        <v>111</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="2">
         <v>41858</v>
       </c>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="2">
+      <c r="C217" s="1"/>
+      <c r="D217" t="s">
+        <v>112</v>
+      </c>
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="2">
         <v>41859</v>
       </c>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="2">
+      <c r="C218" s="1"/>
+      <c r="D218" t="s">
+        <v>113</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="2">
         <v>41860</v>
       </c>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="2">
+      <c r="C219" s="1"/>
+      <c r="D219" t="s">
+        <v>114</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="2">
         <v>41861</v>
       </c>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="2">
+      <c r="C220" s="1"/>
+      <c r="D220" t="s">
+        <v>112</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="2">
         <v>41862</v>
       </c>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="2">
+      <c r="C221" s="1"/>
+      <c r="D221" t="s">
+        <v>115</v>
+      </c>
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="2">
         <v>41863</v>
       </c>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="2">
+      <c r="C222" s="1"/>
+      <c r="D222" t="s">
+        <v>116</v>
+      </c>
+      <c r="E222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="2">
         <v>41864</v>
       </c>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="2">
+      <c r="C223" s="1"/>
+      <c r="D223" t="s">
+        <v>117</v>
+      </c>
+      <c r="E223" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="2">
+        <v>41864</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" t="s">
+        <v>118</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="2">
         <v>41865</v>
       </c>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="2">
+      <c r="C225" s="1"/>
+      <c r="D225" t="s">
+        <v>119</v>
+      </c>
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="2">
         <v>41866</v>
       </c>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="2">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="2">
         <v>41867</v>
       </c>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="2">
+      <c r="C227" s="1"/>
+      <c r="D227" t="s">
+        <v>120</v>
+      </c>
+      <c r="E227" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="2">
         <v>41868</v>
       </c>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="2">
+      <c r="C228" s="1"/>
+      <c r="D228" t="s">
+        <v>121</v>
+      </c>
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="2">
         <v>41869</v>
       </c>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="2">
+      <c r="C229" s="1"/>
+      <c r="D229" t="s">
+        <v>122</v>
+      </c>
+      <c r="E229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="2">
+        <v>41869</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" t="s">
+        <v>125</v>
+      </c>
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="2">
         <v>41870</v>
       </c>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="2">
+      <c r="C231" s="1"/>
+      <c r="D231" t="s">
+        <v>123</v>
+      </c>
+      <c r="E231" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="2">
+        <v>41870</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" t="s">
+        <v>124</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="2">
         <v>41871</v>
       </c>
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="2">
+      <c r="C233" s="1"/>
+      <c r="D233" t="s">
+        <v>126</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="2">
+        <v>41871</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" t="s">
+        <v>127</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="2">
         <v>41872</v>
       </c>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="2">
+      <c r="C235" s="1"/>
+      <c r="D235" t="s">
+        <v>128</v>
+      </c>
+      <c r="E235" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="2">
+        <v>41872</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" t="s">
+        <v>129</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="2">
         <v>41873</v>
       </c>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="2">
+      <c r="C237" s="1"/>
+      <c r="D237" t="s">
+        <v>130</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="2">
+        <v>41873</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" t="s">
+        <v>131</v>
+      </c>
+      <c r="E238" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="2">
+        <v>41873</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" t="s">
+        <v>132</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="2">
+        <v>41873</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" t="s">
+        <v>133</v>
+      </c>
+      <c r="E240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="2">
         <v>41874</v>
       </c>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="2">
+      <c r="C241" s="1"/>
+      <c r="D241" t="s">
+        <v>135</v>
+      </c>
+      <c r="E241" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242" s="2">
         <v>41875</v>
       </c>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="2">
+      <c r="C242" s="1"/>
+      <c r="D242" t="s">
+        <v>134</v>
+      </c>
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="2">
         <v>41876</v>
       </c>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="2">
+      <c r="C243" s="1"/>
+      <c r="D243" t="s">
+        <v>136</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="2">
         <v>41877</v>
       </c>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="2">
+      <c r="C244" s="1"/>
+      <c r="D244" t="s">
+        <v>137</v>
+      </c>
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="2">
+        <v>41877</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" t="s">
+        <v>138</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="2">
         <v>41878</v>
       </c>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="2">
+      <c r="C246" s="1"/>
+      <c r="D246" t="s">
+        <v>139</v>
+      </c>
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247" s="2">
+        <v>41878</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" t="s">
+        <v>140</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248" s="2">
+        <v>41878</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" t="s">
+        <v>141</v>
+      </c>
+      <c r="E248" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249" s="2">
         <v>41879</v>
       </c>
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="2">
+      <c r="C249" s="1"/>
+      <c r="D249" t="s">
+        <v>142</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250" s="2">
         <v>41880</v>
       </c>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="2">
+      <c r="C250" s="1"/>
+      <c r="D250" t="s">
+        <v>143</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="2">
         <v>41881</v>
       </c>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="2">
+      <c r="C251" s="1"/>
+      <c r="D251" t="s">
+        <v>144</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252" s="2">
         <v>41882</v>
       </c>
-      <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="2">
+      <c r="C252" s="1"/>
+      <c r="D252" t="s">
+        <v>145</v>
+      </c>
+      <c r="E252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="2">
         <v>41883</v>
       </c>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="2">
+      <c r="C253" s="1"/>
+      <c r="D253" t="s">
+        <v>146</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254" s="2">
         <v>41884</v>
       </c>
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="2">
+      <c r="C254" s="1"/>
+      <c r="D254" t="s">
+        <v>147</v>
+      </c>
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255" s="2">
         <v>41885</v>
       </c>
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="2">
+      <c r="C255" s="1"/>
+      <c r="D255" t="s">
+        <v>148</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="2">
         <v>41886</v>
       </c>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="2">
+      <c r="C256" s="1"/>
+      <c r="D256" t="s">
+        <v>149</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257" s="2">
         <v>41887</v>
       </c>
-      <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="2">
+      <c r="C257" s="1"/>
+      <c r="D257" t="s">
+        <v>150</v>
+      </c>
+      <c r="E257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258" s="2">
         <v>41888</v>
       </c>
-      <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="2">
+      <c r="C258" s="1"/>
+      <c r="D258" t="s">
+        <v>151</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="2">
         <v>41889</v>
       </c>
-      <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="2">
+      <c r="C259" s="1"/>
+      <c r="D259" t="s">
+        <v>152</v>
+      </c>
+      <c r="E259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260" s="2">
+        <v>41889</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" t="s">
+        <v>153</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261" s="2">
         <v>41890</v>
       </c>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="2">
+      <c r="C261" s="1"/>
+      <c r="D261" t="s">
+        <v>154</v>
+      </c>
+      <c r="E261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="2">
+        <v>41890</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" t="s">
+        <v>155</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="2">
         <v>41891</v>
       </c>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="2">
+      <c r="C263" s="1"/>
+      <c r="D263" t="s">
+        <v>156</v>
+      </c>
+      <c r="E263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264" s="2">
+        <v>41891</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" t="s">
+        <v>157</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265" s="2">
         <v>41892</v>
       </c>
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="2">
+      <c r="C265" s="1"/>
+      <c r="D265" t="s">
+        <v>158</v>
+      </c>
+      <c r="E265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="2">
+        <v>41892</v>
+      </c>
+      <c r="C266" s="1"/>
+      <c r="D266" t="s">
+        <v>159</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267" s="2">
         <v>41893</v>
       </c>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="2">
+      <c r="C267" s="1"/>
+      <c r="D267" t="s">
+        <v>160</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268" s="2">
         <v>41894</v>
       </c>
-      <c r="C241" s="1"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="2">
+      <c r="C268" s="1"/>
+      <c r="D268" t="s">
+        <v>161</v>
+      </c>
+      <c r="E268" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="2">
         <v>41895</v>
       </c>
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="2">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="2">
         <v>41896</v>
       </c>
-      <c r="C243" s="1"/>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="2">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271" s="2">
         <v>41897</v>
       </c>
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="2">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272" s="2">
         <v>41898</v>
       </c>
-      <c r="C245" s="1"/>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="2">
+      <c r="C272" s="1"/>
+      <c r="D272" t="s">
+        <v>162</v>
+      </c>
+      <c r="E272" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="2">
         <v>41899</v>
       </c>
-      <c r="C246" s="1"/>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="2">
+      <c r="C273" s="1"/>
+      <c r="D273" t="s">
+        <v>163</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="2">
         <v>41900</v>
       </c>
-      <c r="C247" s="1"/>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="2">
+      <c r="C274" s="1"/>
+      <c r="D274" t="s">
+        <v>164</v>
+      </c>
+      <c r="E274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="2">
         <v>41901</v>
       </c>
-      <c r="C248" s="1"/>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="2">
+      <c r="C275" s="1"/>
+      <c r="D275" t="s">
+        <v>165</v>
+      </c>
+      <c r="E275" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276" s="2">
+        <v>41901</v>
+      </c>
+      <c r="C276" s="1"/>
+      <c r="D276" t="s">
+        <v>166</v>
+      </c>
+      <c r="E276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="2">
         <v>41902</v>
       </c>
-      <c r="C249" s="1"/>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="2">
+      <c r="C277" s="1"/>
+      <c r="D277" t="s">
+        <v>167</v>
+      </c>
+      <c r="E277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="2">
+        <v>41902</v>
+      </c>
+      <c r="C278" s="1"/>
+      <c r="D278" t="s">
+        <v>168</v>
+      </c>
+      <c r="E278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279" s="2">
         <v>41903</v>
       </c>
-      <c r="C250" s="1"/>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="2">
+      <c r="C279" s="1"/>
+      <c r="D279" t="s">
+        <v>169</v>
+      </c>
+      <c r="E279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="2">
+        <v>41903</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="D280" t="s">
+        <v>170</v>
+      </c>
+      <c r="E280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281" s="2">
         <v>41904</v>
       </c>
-      <c r="C251" s="1"/>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="2">
+      <c r="C281" s="1"/>
+      <c r="D281" t="s">
+        <v>171</v>
+      </c>
+      <c r="E281" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282" s="2">
+        <v>41904</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" t="s">
+        <v>172</v>
+      </c>
+      <c r="E282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="2">
+        <v>41904</v>
+      </c>
+      <c r="C283" s="1"/>
+      <c r="D283" t="s">
+        <v>173</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="2">
         <v>41905</v>
       </c>
-      <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="2">
+      <c r="C284" s="1"/>
+      <c r="D284" t="s">
+        <v>174</v>
+      </c>
+      <c r="E284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="2">
         <v>41906</v>
       </c>
-      <c r="C253" s="1"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="2">
+      <c r="C285" s="1"/>
+      <c r="D285" t="s">
+        <v>175</v>
+      </c>
+      <c r="E285" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" s="2">
+        <v>41906</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" t="s">
+        <v>176</v>
+      </c>
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287" s="2">
         <v>41907</v>
       </c>
-      <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="2">
+      <c r="C287" s="1"/>
+      <c r="D287" t="s">
+        <v>177</v>
+      </c>
+      <c r="E287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="2">
+        <v>41907</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" t="s">
+        <v>178</v>
+      </c>
+      <c r="E288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="2">
         <v>41908</v>
       </c>
-      <c r="C255" s="1"/>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="2">
+      <c r="C289" s="1"/>
+      <c r="D289" t="s">
+        <v>179</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290" s="2">
+        <v>41908</v>
+      </c>
+      <c r="C290" s="1"/>
+      <c r="D290" t="s">
+        <v>180</v>
+      </c>
+      <c r="E290" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291" s="2">
+        <v>41908</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="D291" t="s">
+        <v>181</v>
+      </c>
+      <c r="E291" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292" s="2">
+        <v>41908</v>
+      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" t="s">
+        <v>182</v>
+      </c>
+      <c r="E292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293" s="2">
         <v>41909</v>
       </c>
-      <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="2">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294" s="2">
         <v>41910</v>
       </c>
-      <c r="C257" s="1"/>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="2">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295" s="2">
         <v>41911</v>
       </c>
-      <c r="C258" s="1"/>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="2">
+      <c r="C295" s="1"/>
+      <c r="D295" t="s">
+        <v>183</v>
+      </c>
+      <c r="E295" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296" s="2">
         <v>41912</v>
       </c>
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="2">
+      <c r="C296" s="1"/>
+      <c r="D296" t="s">
+        <v>184</v>
+      </c>
+      <c r="E296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297" s="2">
         <v>41913</v>
       </c>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="2">
+      <c r="C297" s="1"/>
+      <c r="D297" t="s">
+        <v>185</v>
+      </c>
+      <c r="E297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C298" s="1"/>
+      <c r="D298" t="s">
+        <v>186</v>
+      </c>
+      <c r="E298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="2">
         <v>41914</v>
       </c>
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="2">
+      <c r="C299" s="1"/>
+      <c r="D299" t="s">
+        <v>187</v>
+      </c>
+      <c r="E299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="2">
         <v>41915</v>
       </c>
-      <c r="C262" s="1"/>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="2">
+      <c r="C300" s="1"/>
+      <c r="D300" t="s">
+        <v>188</v>
+      </c>
+      <c r="E300" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301" s="2">
+        <v>41915</v>
+      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" t="s">
+        <v>189</v>
+      </c>
+      <c r="E301" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B302" s="2">
+        <v>41915</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" t="s">
+        <v>190</v>
+      </c>
+      <c r="E302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B303" s="2">
+        <v>41915</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="D303" t="s">
+        <v>191</v>
+      </c>
+      <c r="E303" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B304" s="2">
         <v>41916</v>
       </c>
-      <c r="C263" s="1"/>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="2">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="2">
         <v>41917</v>
       </c>
-      <c r="C264" s="1"/>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="2">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B306" s="2">
         <v>41918</v>
       </c>
-      <c r="C265" s="1"/>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="2">
+      <c r="C306" s="1"/>
+      <c r="D306" t="s">
+        <v>192</v>
+      </c>
+      <c r="E306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B307" s="2">
         <v>41919</v>
       </c>
-      <c r="C266" s="1"/>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="2">
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="2">
         <v>41920</v>
       </c>
-      <c r="C267" s="1"/>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="2">
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B309" s="2">
         <v>41921</v>
       </c>
-      <c r="C268" s="1"/>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="2">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B310" s="2">
         <v>41922</v>
       </c>
-      <c r="C269" s="1"/>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B270" s="2">
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="2">
         <v>41923</v>
       </c>
-      <c r="C270" s="1"/>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="2">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="2">
         <v>41924</v>
       </c>
-      <c r="C271" s="1"/>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B272" s="2">
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="2">
         <v>41925</v>
       </c>
-      <c r="C272" s="1"/>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="2">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="2">
         <v>41926</v>
       </c>
-      <c r="C273" s="1"/>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="2">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="2">
         <v>41927</v>
       </c>
-      <c r="C274" s="1"/>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="2">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B316" s="2">
         <v>41928</v>
       </c>
-      <c r="C275" s="1"/>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="2">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B317" s="2">
         <v>41929</v>
       </c>
-      <c r="C276" s="1"/>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="2">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B318" s="2">
         <v>41930</v>
       </c>
-      <c r="C277" s="1"/>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="2">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B319" s="2">
         <v>41931</v>
       </c>
-      <c r="C278" s="1"/>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="2">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B320" s="2">
         <v>41932</v>
-      </c>
-      <c r="C279" s="1"/>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="2">
-        <v>41933</v>
-      </c>
-      <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="2">
-        <v>41934</v>
-      </c>
-      <c r="C281" s="1"/>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="2">
-        <v>41935</v>
-      </c>
-      <c r="C282" s="1"/>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B283" s="2">
-        <v>41936</v>
-      </c>
-      <c r="C283" s="1"/>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="2">
-        <v>41937</v>
-      </c>
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B285" s="2">
-        <v>41938</v>
-      </c>
-      <c r="C285" s="1"/>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="2">
-        <v>41939</v>
-      </c>
-      <c r="C286" s="1"/>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="2">
-        <v>41940</v>
-      </c>
-      <c r="C287" s="1"/>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="2">
-        <v>41941</v>
-      </c>
-      <c r="C288" s="1"/>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B289" s="2">
-        <v>41942</v>
-      </c>
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B290" s="2">
-        <v>41943</v>
-      </c>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B291" s="2">
-        <v>41944</v>
-      </c>
-      <c r="C291" s="1"/>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B292" s="2">
-        <v>41945</v>
-      </c>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B293" s="2">
-        <v>41946</v>
-      </c>
-      <c r="C293" s="1"/>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B294" s="2">
-        <v>41947</v>
-      </c>
-      <c r="C294" s="1"/>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B295" s="2">
-        <v>41948</v>
-      </c>
-      <c r="C295" s="1"/>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B296" s="2">
-        <v>41949</v>
-      </c>
-      <c r="C296" s="1"/>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B297" s="2">
-        <v>41950</v>
-      </c>
-      <c r="C297" s="1"/>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B298" s="2">
-        <v>41951</v>
-      </c>
-      <c r="C298" s="1"/>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" s="2">
-        <v>41952</v>
-      </c>
-      <c r="C299" s="1"/>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" s="2">
-        <v>41953</v>
-      </c>
-      <c r="C300" s="1"/>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" s="2">
-        <v>41954</v>
-      </c>
-      <c r="C301" s="1"/>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" s="2">
-        <v>41955</v>
-      </c>
-      <c r="C302" s="1"/>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" s="2">
-        <v>41956</v>
-      </c>
-      <c r="C303" s="1"/>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C304" s="1"/>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="2">
-        <v>41958</v>
-      </c>
-      <c r="C305" s="1"/>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="2">
-        <v>41959</v>
-      </c>
-      <c r="C306" s="1"/>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="2">
-        <v>41960</v>
-      </c>
-      <c r="C307" s="1"/>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C308" s="1"/>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="2">
-        <v>41962</v>
-      </c>
-      <c r="C309" s="1"/>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C310" s="1"/>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="2">
-        <v>41964</v>
-      </c>
-      <c r="C311" s="1"/>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="2">
-        <v>41965</v>
-      </c>
-      <c r="C312" s="1"/>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="2">
-        <v>41966</v>
-      </c>
-      <c r="C313" s="1"/>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="2">
-        <v>41967</v>
-      </c>
-      <c r="C314" s="1"/>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="2">
-        <v>41968</v>
-      </c>
-      <c r="C315" s="1"/>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="2">
-        <v>41969</v>
-      </c>
-      <c r="C316" s="1"/>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="2">
-        <v>41970</v>
-      </c>
-      <c r="C317" s="1"/>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="2">
-        <v>41971</v>
-      </c>
-      <c r="C318" s="1"/>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="2">
-        <v>41972</v>
-      </c>
-      <c r="C319" s="1"/>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="2">
-        <v>41973</v>
       </c>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="2">
-        <v>41974</v>
+        <v>41933</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="2">
-        <v>41975</v>
+        <v>41934</v>
       </c>
       <c r="C322" s="1"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="2">
-        <v>41976</v>
+        <v>41935</v>
       </c>
       <c r="C323" s="1"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="2">
-        <v>41977</v>
+        <v>41936</v>
       </c>
       <c r="C324" s="1"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="2">
-        <v>41978</v>
+        <v>41937</v>
       </c>
       <c r="C325" s="1"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="2">
-        <v>41979</v>
+        <v>41938</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="2">
-        <v>41980</v>
+        <v>41939</v>
       </c>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="2">
-        <v>41981</v>
+        <v>41940</v>
       </c>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="2">
-        <v>41982</v>
+        <v>41941</v>
       </c>
       <c r="C329" s="1"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="2">
-        <v>41983</v>
+        <v>41942</v>
       </c>
       <c r="C330" s="1"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="2">
-        <v>41984</v>
+        <v>41943</v>
       </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="2">
-        <v>41985</v>
+        <v>41944</v>
       </c>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="2">
-        <v>41986</v>
+        <v>41945</v>
       </c>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="2">
-        <v>41987</v>
+        <v>41946</v>
       </c>
       <c r="C334" s="1"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="2">
-        <v>41988</v>
+        <v>41947</v>
       </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="2">
-        <v>41989</v>
+        <v>41948</v>
       </c>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="2">
-        <v>41990</v>
+        <v>41949</v>
       </c>
       <c r="C337" s="1"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="2">
-        <v>41991</v>
+        <v>41950</v>
       </c>
       <c r="C338" s="1"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="2">
-        <v>41992</v>
+        <v>41951</v>
       </c>
       <c r="C339" s="1"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="2">
-        <v>41993</v>
+        <v>41952</v>
       </c>
       <c r="C340" s="1"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="2">
-        <v>41994</v>
+        <v>41953</v>
       </c>
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="2">
-        <v>41995</v>
+        <v>41954</v>
       </c>
       <c r="C342" s="1"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="2">
-        <v>41996</v>
+        <v>41955</v>
       </c>
       <c r="C343" s="1"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="2">
-        <v>41997</v>
+        <v>41956</v>
       </c>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="2">
-        <v>41998</v>
+        <v>41957</v>
       </c>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="2">
-        <v>41999</v>
+        <v>41958</v>
       </c>
       <c r="C346" s="1"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="2">
-        <v>42000</v>
+        <v>41959</v>
       </c>
       <c r="C347" s="1"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="2">
-        <v>42001</v>
+        <v>41960</v>
       </c>
       <c r="C348" s="1"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="2">
-        <v>42002</v>
+        <v>41961</v>
       </c>
       <c r="C349" s="1"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="2">
-        <v>42003</v>
+        <v>41962</v>
       </c>
       <c r="C350" s="1"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="2">
-        <v>42004</v>
+        <v>41963</v>
       </c>
       <c r="C351" s="1"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="2">
-        <v>42005</v>
+        <v>41964</v>
       </c>
       <c r="C352" s="1"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="2">
-        <v>42006</v>
+        <v>41965</v>
       </c>
       <c r="C353" s="1"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="2">
-        <v>42007</v>
+        <v>41966</v>
       </c>
       <c r="C354" s="1"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="2">
-        <v>42008</v>
+        <v>41967</v>
       </c>
       <c r="C355" s="1"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="2">
-        <v>42009</v>
+        <v>41968</v>
       </c>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="2">
-        <v>42010</v>
+        <v>41969</v>
       </c>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="2">
-        <v>42011</v>
+        <v>41970</v>
       </c>
       <c r="C358" s="1"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="2">
-        <v>42012</v>
+        <v>41971</v>
       </c>
       <c r="C359" s="1"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="2">
-        <v>42013</v>
+        <v>41972</v>
       </c>
       <c r="C360" s="1"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B361" s="2">
-        <v>42014</v>
+        <v>41973</v>
       </c>
       <c r="C361" s="1"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B362" s="2">
-        <v>42015</v>
+        <v>41974</v>
       </c>
       <c r="C362" s="1"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B363" s="2">
-        <v>42016</v>
+        <v>41975</v>
       </c>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B364" s="2">
-        <v>42017</v>
+        <v>41976</v>
       </c>
       <c r="C364" s="1"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B365" s="2">
-        <v>42018</v>
+        <v>41977</v>
       </c>
       <c r="C365" s="1"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B366" s="2">
-        <v>42019</v>
+        <v>41978</v>
       </c>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B367" s="2">
-        <v>42020</v>
+        <v>41979</v>
       </c>
       <c r="C367" s="1"/>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B368" s="2">
-        <v>42021</v>
+        <v>41980</v>
       </c>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B369" s="2">
-        <v>42022</v>
+        <v>41981</v>
       </c>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B370" s="2">
-        <v>42023</v>
+        <v>41982</v>
       </c>
       <c r="C370" s="1"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B371" s="2">
-        <v>42024</v>
+        <v>41983</v>
       </c>
       <c r="C371" s="1"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B372" s="2">
-        <v>42025</v>
+        <v>41984</v>
       </c>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B373" s="2">
-        <v>42026</v>
+        <v>41985</v>
       </c>
       <c r="C373" s="1"/>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B374" s="2">
-        <v>42027</v>
+        <v>41986</v>
       </c>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B375" s="2">
-        <v>42028</v>
+        <v>41987</v>
       </c>
       <c r="C375" s="1"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B376" s="2">
-        <v>42029</v>
+        <v>41988</v>
       </c>
       <c r="C376" s="1"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B377" s="2">
-        <v>42030</v>
+        <v>41989</v>
       </c>
       <c r="C377" s="1"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B378" s="2">
-        <v>42031</v>
+        <v>41990</v>
       </c>
       <c r="C378" s="1"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B379" s="2">
-        <v>42032</v>
+        <v>41991</v>
       </c>
       <c r="C379" s="1"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="2">
-        <v>42033</v>
+        <v>41992</v>
       </c>
       <c r="C380" s="1"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B381" s="2">
-        <v>42034</v>
+        <v>41993</v>
       </c>
       <c r="C381" s="1"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B382" s="2">
-        <v>42035</v>
+        <v>41994</v>
       </c>
       <c r="C382" s="1"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B383" s="2">
-        <v>42036</v>
+        <v>41995</v>
       </c>
       <c r="C383" s="1"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B384" s="2">
-        <v>42037</v>
+        <v>41996</v>
       </c>
       <c r="C384" s="1"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B385" s="2">
-        <v>42038</v>
+        <v>41997</v>
       </c>
       <c r="C385" s="1"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B386" s="2">
-        <v>42039</v>
+        <v>41998</v>
       </c>
       <c r="C386" s="1"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B387" s="2">
-        <v>42040</v>
+        <v>41999</v>
       </c>
       <c r="C387" s="1"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B388" s="2">
-        <v>42041</v>
+        <v>42000</v>
       </c>
       <c r="C388" s="1"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B389" s="2">
-        <v>42042</v>
+        <v>42001</v>
       </c>
       <c r="C389" s="1"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B390" s="2">
-        <v>42043</v>
+        <v>42002</v>
       </c>
       <c r="C390" s="1"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B391" s="2">
-        <v>42044</v>
+        <v>42003</v>
       </c>
       <c r="C391" s="1"/>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B392" s="2">
-        <v>42045</v>
+        <v>42004</v>
       </c>
       <c r="C392" s="1"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B393" s="2">
-        <v>42046</v>
+        <v>42005</v>
       </c>
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B394" s="2">
-        <v>42047</v>
+        <v>42006</v>
       </c>
       <c r="C394" s="1"/>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B395" s="2">
-        <v>42048</v>
+        <v>42007</v>
       </c>
       <c r="C395" s="1"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B396" s="2">
-        <v>42049</v>
+        <v>42008</v>
       </c>
       <c r="C396" s="1"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B397" s="2">
-        <v>42050</v>
+        <v>42009</v>
       </c>
       <c r="C397" s="1"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="2">
-        <v>42051</v>
+        <v>42010</v>
       </c>
       <c r="C398" s="1"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="2">
-        <v>42052</v>
+        <v>42011</v>
       </c>
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="2">
-        <v>42053</v>
+        <v>42012</v>
       </c>
       <c r="C400" s="1"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B401" s="2">
-        <v>42054</v>
+        <v>42013</v>
       </c>
       <c r="C401" s="1"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B402" s="2">
-        <v>42055</v>
+        <v>42014</v>
       </c>
       <c r="C402" s="1"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B403" s="2">
-        <v>42056</v>
+        <v>42015</v>
       </c>
       <c r="C403" s="1"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B404" s="2">
-        <v>42057</v>
+        <v>42016</v>
       </c>
       <c r="C404" s="1"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B405" s="2">
-        <v>42058</v>
+        <v>42017</v>
       </c>
       <c r="C405" s="1"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B406" s="2">
-        <v>42059</v>
+        <v>42018</v>
       </c>
       <c r="C406" s="1"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B407" s="2">
-        <v>42060</v>
+        <v>42019</v>
       </c>
       <c r="C407" s="1"/>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B408" s="2">
-        <v>42061</v>
+        <v>42020</v>
       </c>
       <c r="C408" s="1"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B409" s="2">
-        <v>42062</v>
+        <v>42021</v>
       </c>
       <c r="C409" s="1"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B410" s="2">
-        <v>42063</v>
+        <v>42022</v>
       </c>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B411" s="2">
-        <v>42064</v>
+        <v>42023</v>
       </c>
       <c r="C411" s="1"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B412" s="2">
-        <v>42065</v>
+        <v>42024</v>
       </c>
       <c r="C412" s="1"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B413" s="2">
-        <v>42066</v>
+        <v>42025</v>
       </c>
       <c r="C413" s="1"/>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B414" s="2">
-        <v>42067</v>
+        <v>42026</v>
       </c>
       <c r="C414" s="1"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B415" s="2">
-        <v>42068</v>
+        <v>42027</v>
       </c>
       <c r="C415" s="1"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B416" s="2">
-        <v>42069</v>
+        <v>42028</v>
       </c>
       <c r="C416" s="1"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B417" s="2">
-        <v>42070</v>
+        <v>42029</v>
       </c>
       <c r="C417" s="1"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B418" s="2">
-        <v>42071</v>
+        <v>42030</v>
       </c>
       <c r="C418" s="1"/>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B419" s="2">
-        <v>42072</v>
+        <v>42031</v>
       </c>
       <c r="C419" s="1"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B420" s="2">
-        <v>42073</v>
+        <v>42032</v>
       </c>
       <c r="C420" s="1"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B421" s="2">
-        <v>42074</v>
+        <v>42033</v>
       </c>
       <c r="C421" s="1"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B422" s="2">
-        <v>42075</v>
+        <v>42034</v>
       </c>
       <c r="C422" s="1"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B423" s="2">
-        <v>42076</v>
+        <v>42035</v>
       </c>
       <c r="C423" s="1"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B424" s="2">
-        <v>42077</v>
+        <v>42036</v>
       </c>
       <c r="C424" s="1"/>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B425" s="2">
-        <v>42078</v>
+        <v>42037</v>
       </c>
       <c r="C425" s="1"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B426" s="2">
-        <v>42079</v>
+        <v>42038</v>
       </c>
       <c r="C426" s="1"/>
     </row>
     <row r="427" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B427" s="2">
-        <v>42080</v>
+        <v>42039</v>
       </c>
       <c r="C427" s="1"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B428" s="2">
-        <v>42081</v>
+        <v>42040</v>
       </c>
       <c r="C428" s="1"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B429" s="2">
-        <v>42082</v>
+        <v>42041</v>
       </c>
       <c r="C429" s="1"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B430" s="2">
-        <v>42083</v>
+        <v>42042</v>
       </c>
       <c r="C430" s="1"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B431" s="2">
-        <v>42084</v>
+        <v>42043</v>
       </c>
       <c r="C431" s="1"/>
     </row>
     <row r="432" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B432" s="2">
-        <v>42085</v>
+        <v>42044</v>
       </c>
       <c r="C432" s="1"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B433" s="2">
-        <v>42086</v>
+        <v>42045</v>
       </c>
       <c r="C433" s="1"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="2">
-        <v>42087</v>
+        <v>42046</v>
       </c>
       <c r="C434" s="1"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B435" s="2">
-        <v>42088</v>
+        <v>42047</v>
       </c>
       <c r="C435" s="1"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B436" s="2">
-        <v>42089</v>
+        <v>42048</v>
       </c>
       <c r="C436" s="1"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B437" s="2">
-        <v>42090</v>
+        <v>42049</v>
       </c>
       <c r="C437" s="1"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B438" s="2">
-        <v>42091</v>
+        <v>42050</v>
       </c>
       <c r="C438" s="1"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B439" s="2">
-        <v>42092</v>
+        <v>42051</v>
       </c>
       <c r="C439" s="1"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B440" s="2">
-        <v>42093</v>
+        <v>42052</v>
       </c>
       <c r="C440" s="1"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B441" s="2">
-        <v>42094</v>
+        <v>42053</v>
       </c>
       <c r="C441" s="1"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B442" s="2">
-        <v>42095</v>
+        <v>42054</v>
       </c>
       <c r="C442" s="1"/>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B443" s="2">
-        <v>42096</v>
+        <v>42055</v>
       </c>
       <c r="C443" s="1"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B444" s="2">
-        <v>42097</v>
+        <v>42056</v>
       </c>
       <c r="C444" s="1"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B445" s="2">
-        <v>42098</v>
+        <v>42057</v>
       </c>
       <c r="C445" s="1"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B446" s="2">
-        <v>42099</v>
+        <v>42058</v>
       </c>
       <c r="C446" s="1"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B447" s="2">
-        <v>42100</v>
+        <v>42059</v>
       </c>
       <c r="C447" s="1"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B448" s="2">
-        <v>42101</v>
+        <v>42060</v>
       </c>
       <c r="C448" s="1"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B449" s="2">
-        <v>42102</v>
+        <v>42061</v>
       </c>
       <c r="C449" s="1"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B450" s="2">
-        <v>42103</v>
+        <v>42062</v>
       </c>
       <c r="C450" s="1"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B451" s="2">
-        <v>42104</v>
+        <v>42063</v>
       </c>
       <c r="C451" s="1"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B452" s="2">
-        <v>42105</v>
+        <v>42064</v>
       </c>
       <c r="C452" s="1"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B453" s="2">
-        <v>42106</v>
+        <v>42065</v>
       </c>
       <c r="C453" s="1"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B454" s="2">
-        <v>42107</v>
+        <v>42066</v>
       </c>
       <c r="C454" s="1"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B455" s="2">
-        <v>42108</v>
+        <v>42067</v>
       </c>
       <c r="C455" s="1"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B456" s="2">
-        <v>42109</v>
+        <v>42068</v>
       </c>
       <c r="C456" s="1"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B457" s="2">
-        <v>42110</v>
+        <v>42069</v>
       </c>
       <c r="C457" s="1"/>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B458" s="2">
-        <v>42111</v>
+        <v>42070</v>
       </c>
       <c r="C458" s="1"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B459" s="2">
-        <v>42112</v>
+        <v>42071</v>
       </c>
       <c r="C459" s="1"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B460" s="2">
-        <v>42113</v>
+        <v>42072</v>
       </c>
       <c r="C460" s="1"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B461" s="2">
-        <v>42114</v>
+        <v>42073</v>
       </c>
       <c r="C461" s="1"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B462" s="2">
-        <v>42115</v>
+        <v>42074</v>
       </c>
       <c r="C462" s="1"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B463" s="2">
-        <v>42116</v>
+        <v>42075</v>
       </c>
       <c r="C463" s="1"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B464" s="2">
-        <v>42117</v>
+        <v>42076</v>
       </c>
       <c r="C464" s="1"/>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B465" s="2">
-        <v>42118</v>
+        <v>42077</v>
       </c>
       <c r="C465" s="1"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B466" s="2">
-        <v>42119</v>
+        <v>42078</v>
       </c>
       <c r="C466" s="1"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B467" s="2">
-        <v>42120</v>
+        <v>42079</v>
       </c>
       <c r="C467" s="1"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B468" s="2">
-        <v>42121</v>
+        <v>42080</v>
       </c>
       <c r="C468" s="1"/>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B469" s="2">
-        <v>42122</v>
+        <v>42081</v>
       </c>
       <c r="C469" s="1"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B470" s="2">
-        <v>42123</v>
+        <v>42082</v>
       </c>
       <c r="C470" s="1"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B471" s="2">
-        <v>42124</v>
+        <v>42083</v>
       </c>
       <c r="C471" s="1"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B472" s="2">
-        <v>42125</v>
+        <v>42084</v>
       </c>
       <c r="C472" s="1"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B473" s="2">
-        <v>42126</v>
+        <v>42085</v>
       </c>
       <c r="C473" s="1"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B474" s="2">
-        <v>42127</v>
+        <v>42086</v>
       </c>
       <c r="C474" s="1"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B475" s="2">
-        <v>42128</v>
+        <v>42087</v>
       </c>
       <c r="C475" s="1"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B476" s="2">
-        <v>42129</v>
+        <v>42088</v>
       </c>
       <c r="C476" s="1"/>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B477" s="2">
-        <v>42130</v>
+        <v>42089</v>
       </c>
       <c r="C477" s="1"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B478" s="2">
-        <v>42131</v>
+        <v>42090</v>
       </c>
       <c r="C478" s="1"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B479" s="2">
-        <v>42132</v>
+        <v>42091</v>
       </c>
       <c r="C479" s="1"/>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B480" s="2">
-        <v>42133</v>
+        <v>42092</v>
       </c>
       <c r="C480" s="1"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B481" s="2">
-        <v>42134</v>
+        <v>42093</v>
       </c>
       <c r="C481" s="1"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B482" s="2">
-        <v>42135</v>
+        <v>42094</v>
       </c>
       <c r="C482" s="1"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B483" s="2">
-        <v>42136</v>
+        <v>42095</v>
       </c>
       <c r="C483" s="1"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B484" s="2">
-        <v>42137</v>
+        <v>42096</v>
       </c>
       <c r="C484" s="1"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B485" s="2">
-        <v>42138</v>
+        <v>42097</v>
       </c>
       <c r="C485" s="1"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B486" s="2">
-        <v>42139</v>
+        <v>42098</v>
       </c>
       <c r="C486" s="1"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B487" s="2">
-        <v>42140</v>
+        <v>42099</v>
       </c>
       <c r="C487" s="1"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="2">
-        <v>42141</v>
+        <v>42100</v>
       </c>
       <c r="C488" s="1"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B489" s="2">
-        <v>42142</v>
+        <v>42101</v>
       </c>
       <c r="C489" s="1"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B490" s="2">
-        <v>42143</v>
+        <v>42102</v>
       </c>
       <c r="C490" s="1"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B491" s="2">
-        <v>42144</v>
+        <v>42103</v>
       </c>
       <c r="C491" s="1"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B492" s="2">
-        <v>42145</v>
+        <v>42104</v>
       </c>
       <c r="C492" s="1"/>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B493" s="2">
-        <v>42146</v>
+        <v>42105</v>
       </c>
       <c r="C493" s="1"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B494" s="2">
-        <v>42147</v>
+        <v>42106</v>
       </c>
       <c r="C494" s="1"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B495" s="2">
-        <v>42148</v>
+        <v>42107</v>
       </c>
       <c r="C495" s="1"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B496" s="2">
-        <v>42149</v>
+        <v>42108</v>
       </c>
       <c r="C496" s="1"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B497" s="2">
-        <v>42150</v>
+        <v>42109</v>
       </c>
       <c r="C497" s="1"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B498" s="2">
-        <v>42151</v>
+        <v>42110</v>
       </c>
       <c r="C498" s="1"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B499" s="2">
-        <v>42152</v>
+        <v>42111</v>
       </c>
       <c r="C499" s="1"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B500" s="2">
-        <v>42153</v>
+        <v>42112</v>
       </c>
       <c r="C500" s="1"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B501" s="2">
-        <v>42154</v>
+        <v>42113</v>
       </c>
       <c r="C501" s="1"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B502" s="2">
-        <v>42155</v>
+        <v>42114</v>
       </c>
       <c r="C502" s="1"/>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B503" s="2">
-        <v>42156</v>
+        <v>42115</v>
       </c>
       <c r="C503" s="1"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B504" s="2">
-        <v>42157</v>
+        <v>42116</v>
       </c>
       <c r="C504" s="1"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B505" s="2">
-        <v>42158</v>
+        <v>42117</v>
       </c>
       <c r="C505" s="1"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B506" s="2">
-        <v>42159</v>
+        <v>42118</v>
       </c>
       <c r="C506" s="1"/>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B507" s="2">
-        <v>42160</v>
+        <v>42119</v>
       </c>
       <c r="C507" s="1"/>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B508" s="2">
-        <v>42161</v>
+        <v>42120</v>
       </c>
       <c r="C508" s="1"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B509" s="2">
-        <v>42162</v>
+        <v>42121</v>
       </c>
       <c r="C509" s="1"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B510" s="2">
-        <v>42163</v>
+        <v>42122</v>
       </c>
       <c r="C510" s="1"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B511" s="2">
-        <v>42164</v>
+        <v>42123</v>
       </c>
       <c r="C511" s="1"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B512" s="2">
-        <v>42165</v>
+        <v>42124</v>
       </c>
       <c r="C512" s="1"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B513" s="2">
-        <v>42166</v>
+        <v>42125</v>
       </c>
       <c r="C513" s="1"/>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B514" s="2">
-        <v>42167</v>
+        <v>42126</v>
       </c>
       <c r="C514" s="1"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B515" s="2">
-        <v>42168</v>
+        <v>42127</v>
       </c>
       <c r="C515" s="1"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B516" s="2">
-        <v>42169</v>
+        <v>42128</v>
       </c>
       <c r="C516" s="1"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B517" s="2">
-        <v>42170</v>
+        <v>42129</v>
       </c>
       <c r="C517" s="1"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B518" s="2">
-        <v>42171</v>
+        <v>42130</v>
       </c>
       <c r="C518" s="1"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B519" s="2">
-        <v>42172</v>
+        <v>42131</v>
       </c>
       <c r="C519" s="1"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B520" s="2">
-        <v>42173</v>
+        <v>42132</v>
       </c>
       <c r="C520" s="1"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B521" s="2">
-        <v>42174</v>
+        <v>42133</v>
       </c>
       <c r="C521" s="1"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B522" s="2">
-        <v>42175</v>
+        <v>42134</v>
       </c>
       <c r="C522" s="1"/>
     </row>
     <row r="523" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B523" s="2">
-        <v>42176</v>
+        <v>42135</v>
       </c>
       <c r="C523" s="1"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B524" s="2">
-        <v>42177</v>
+        <v>42136</v>
       </c>
       <c r="C524" s="1"/>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B525" s="2">
-        <v>42178</v>
+        <v>42137</v>
       </c>
       <c r="C525" s="1"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B526" s="2">
-        <v>42179</v>
+        <v>42138</v>
       </c>
       <c r="C526" s="1"/>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B527" s="2">
-        <v>42180</v>
+        <v>42139</v>
       </c>
       <c r="C527" s="1"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B528" s="2">
-        <v>42181</v>
+        <v>42140</v>
       </c>
       <c r="C528" s="1"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B529" s="2">
-        <v>42182</v>
+        <v>42141</v>
       </c>
       <c r="C529" s="1"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B530" s="2">
-        <v>42183</v>
+        <v>42142</v>
       </c>
       <c r="C530" s="1"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B531" s="2">
-        <v>42184</v>
+        <v>42143</v>
       </c>
       <c r="C531" s="1"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B532" s="2">
-        <v>42185</v>
+        <v>42144</v>
       </c>
       <c r="C532" s="1"/>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B533" s="2">
-        <v>42186</v>
+        <v>42145</v>
       </c>
       <c r="C533" s="1"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B534" s="2">
-        <v>42187</v>
+        <v>42146</v>
       </c>
       <c r="C534" s="1"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B535" s="2">
-        <v>42188</v>
+        <v>42147</v>
       </c>
       <c r="C535" s="1"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B536" s="2">
-        <v>42189</v>
+        <v>42148</v>
       </c>
       <c r="C536" s="1"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B537" s="2">
-        <v>42190</v>
+        <v>42149</v>
       </c>
       <c r="C537" s="1"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B538" s="2">
-        <v>42191</v>
+        <v>42150</v>
       </c>
       <c r="C538" s="1"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B539" s="2">
-        <v>42192</v>
+        <v>42151</v>
       </c>
       <c r="C539" s="1"/>
     </row>
     <row r="540" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B540" s="2">
-        <v>42193</v>
+        <v>42152</v>
       </c>
       <c r="C540" s="1"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B541" s="2">
-        <v>42194</v>
+        <v>42153</v>
       </c>
       <c r="C541" s="1"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="2">
-        <v>42195</v>
+        <v>42154</v>
       </c>
       <c r="C542" s="1"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B543" s="2">
-        <v>42196</v>
+        <v>42155</v>
       </c>
       <c r="C543" s="1"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B544" s="2">
-        <v>42197</v>
+        <v>42156</v>
       </c>
       <c r="C544" s="1"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B545" s="2">
-        <v>42198</v>
+        <v>42157</v>
       </c>
       <c r="C545" s="1"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B546" s="2">
-        <v>42199</v>
+        <v>42158</v>
       </c>
       <c r="C546" s="1"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B547" s="2">
-        <v>42200</v>
+        <v>42159</v>
       </c>
       <c r="C547" s="1"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B548" s="2">
-        <v>42201</v>
+        <v>42160</v>
       </c>
       <c r="C548" s="1"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B549" s="2">
-        <v>42202</v>
+        <v>42161</v>
       </c>
       <c r="C549" s="1"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B550" s="2">
-        <v>42203</v>
+        <v>42162</v>
       </c>
       <c r="C550" s="1"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B551" s="2">
-        <v>42204</v>
+        <v>42163</v>
       </c>
       <c r="C551" s="1"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B552" s="2">
-        <v>42205</v>
+        <v>42164</v>
       </c>
       <c r="C552" s="1"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B553" s="2">
-        <v>42206</v>
+        <v>42165</v>
       </c>
       <c r="C553" s="1"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B554" s="2">
-        <v>42207</v>
+        <v>42166</v>
       </c>
       <c r="C554" s="1"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B555" s="2">
-        <v>42208</v>
+        <v>42167</v>
       </c>
       <c r="C555" s="1"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B556" s="2">
-        <v>42209</v>
+        <v>42168</v>
       </c>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B557" s="2">
-        <v>42210</v>
+        <v>42169</v>
       </c>
       <c r="C557" s="1"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B558" s="2">
-        <v>42211</v>
+        <v>42170</v>
       </c>
       <c r="C558" s="1"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B559" s="2">
-        <v>42212</v>
+        <v>42171</v>
       </c>
       <c r="C559" s="1"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B560" s="2">
-        <v>42213</v>
+        <v>42172</v>
       </c>
       <c r="C560" s="1"/>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B561" s="2">
-        <v>42214</v>
+        <v>42173</v>
       </c>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B562" s="2">
-        <v>42215</v>
+        <v>42174</v>
       </c>
       <c r="C562" s="1"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B563" s="2">
-        <v>42216</v>
+        <v>42175</v>
       </c>
       <c r="C563" s="1"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B564" s="2">
-        <v>42217</v>
+        <v>42176</v>
       </c>
       <c r="C564" s="1"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B565" s="2">
-        <v>42218</v>
+        <v>42177</v>
       </c>
       <c r="C565" s="1"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B566" s="2">
-        <v>42219</v>
+        <v>42178</v>
       </c>
       <c r="C566" s="1"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B567" s="2">
-        <v>42220</v>
+        <v>42179</v>
       </c>
       <c r="C567" s="1"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B568" s="2">
-        <v>42221</v>
+        <v>42180</v>
       </c>
       <c r="C568" s="1"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B569" s="2">
-        <v>42222</v>
+        <v>42181</v>
       </c>
       <c r="C569" s="1"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B570" s="2">
-        <v>42223</v>
+        <v>42182</v>
       </c>
       <c r="C570" s="1"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B571" s="2">
-        <v>42224</v>
+        <v>42183</v>
       </c>
       <c r="C571" s="1"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B572" s="2">
-        <v>42225</v>
+        <v>42184</v>
       </c>
       <c r="C572" s="1"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B573" s="2">
-        <v>42226</v>
+        <v>42185</v>
       </c>
       <c r="C573" s="1"/>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B574" s="2">
-        <v>42227</v>
+        <v>42186</v>
       </c>
       <c r="C574" s="1"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B575" s="2">
-        <v>42228</v>
+        <v>42187</v>
       </c>
       <c r="C575" s="1"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B576" s="2">
-        <v>42229</v>
+        <v>42188</v>
       </c>
       <c r="C576" s="1"/>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B577" s="2">
-        <v>42230</v>
+        <v>42189</v>
       </c>
       <c r="C577" s="1"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B578" s="2">
-        <v>42231</v>
+        <v>42190</v>
       </c>
       <c r="C578" s="1"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B579" s="2">
-        <v>42232</v>
+        <v>42191</v>
       </c>
       <c r="C579" s="1"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B580" s="2">
-        <v>42233</v>
+        <v>42192</v>
       </c>
       <c r="C580" s="1"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B581" s="2">
-        <v>42234</v>
+        <v>42193</v>
       </c>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B582" s="2">
-        <v>42235</v>
+        <v>42194</v>
       </c>
       <c r="C582" s="1"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B583" s="2">
-        <v>42236</v>
+        <v>42195</v>
       </c>
       <c r="C583" s="1"/>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B584" s="2">
-        <v>42237</v>
+        <v>42196</v>
       </c>
       <c r="C584" s="1"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B585" s="2">
-        <v>42238</v>
+        <v>42197</v>
       </c>
       <c r="C585" s="1"/>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B586" s="2">
-        <v>42239</v>
+        <v>42198</v>
       </c>
       <c r="C586" s="1"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B587" s="2">
-        <v>42240</v>
+        <v>42199</v>
       </c>
       <c r="C587" s="1"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B588" s="2">
-        <v>42241</v>
+        <v>42200</v>
       </c>
       <c r="C588" s="1"/>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B589" s="2">
-        <v>42242</v>
+        <v>42201</v>
       </c>
       <c r="C589" s="1"/>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B590" s="2">
-        <v>42243</v>
+        <v>42202</v>
       </c>
       <c r="C590" s="1"/>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B591" s="2">
-        <v>42244</v>
+        <v>42203</v>
       </c>
       <c r="C591" s="1"/>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B592" s="2">
-        <v>42245</v>
+        <v>42204</v>
       </c>
       <c r="C592" s="1"/>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B593" s="2">
-        <v>42246</v>
+        <v>42205</v>
       </c>
       <c r="C593" s="1"/>
     </row>
     <row r="594" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B594" s="2">
-        <v>42247</v>
+        <v>42206</v>
       </c>
       <c r="C594" s="1"/>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B595" s="2">
-        <v>42248</v>
+        <v>42207</v>
       </c>
       <c r="C595" s="1"/>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B596" s="2">
-        <v>42249</v>
+        <v>42208</v>
       </c>
       <c r="C596" s="1"/>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B597" s="2">
-        <v>42250</v>
+        <v>42209</v>
       </c>
       <c r="C597" s="1"/>
     </row>
     <row r="598" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B598" s="2">
-        <v>42251</v>
+        <v>42210</v>
       </c>
       <c r="C598" s="1"/>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B599" s="2">
-        <v>42252</v>
+        <v>42211</v>
       </c>
       <c r="C599" s="1"/>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B600" s="2">
-        <v>42253</v>
+        <v>42212</v>
       </c>
       <c r="C600" s="1"/>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B601" s="2">
-        <v>42254</v>
+        <v>42213</v>
       </c>
       <c r="C601" s="1"/>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B602" s="2">
-        <v>42255</v>
+        <v>42214</v>
       </c>
       <c r="C602" s="1"/>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B603" s="2">
-        <v>42256</v>
+        <v>42215</v>
       </c>
       <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B604" s="2">
-        <v>42257</v>
+        <v>42216</v>
       </c>
       <c r="C604" s="1"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B605" s="2">
-        <v>42258</v>
+        <v>42217</v>
       </c>
       <c r="C605" s="1"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B606" s="2">
-        <v>42259</v>
+        <v>42218</v>
       </c>
       <c r="C606" s="1"/>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B607" s="2">
-        <v>42260</v>
+        <v>42219</v>
       </c>
       <c r="C607" s="1"/>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B608" s="2">
-        <v>42261</v>
+        <v>42220</v>
       </c>
       <c r="C608" s="1"/>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B609" s="2">
-        <v>42262</v>
+        <v>42221</v>
       </c>
       <c r="C609" s="1"/>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B610" s="2">
-        <v>42263</v>
+        <v>42222</v>
       </c>
       <c r="C610" s="1"/>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B611" s="2">
-        <v>42264</v>
+        <v>42223</v>
       </c>
       <c r="C611" s="1"/>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B612" s="2">
-        <v>42265</v>
+        <v>42224</v>
       </c>
       <c r="C612" s="1"/>
     </row>
     <row r="613" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B613" s="2">
-        <v>42266</v>
+        <v>42225</v>
       </c>
       <c r="C613" s="1"/>
     </row>
     <row r="614" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B614" s="2">
-        <v>42267</v>
+        <v>42226</v>
       </c>
       <c r="C614" s="1"/>
     </row>
     <row r="615" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B615" s="2">
-        <v>42268</v>
+        <v>42227</v>
       </c>
       <c r="C615" s="1"/>
     </row>
     <row r="616" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B616" s="2">
-        <v>42269</v>
+        <v>42228</v>
       </c>
       <c r="C616" s="1"/>
     </row>
     <row r="617" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B617" s="2">
-        <v>42270</v>
+        <v>42229</v>
       </c>
       <c r="C617" s="1"/>
     </row>
     <row r="618" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B618" s="2">
-        <v>42271</v>
+        <v>42230</v>
       </c>
       <c r="C618" s="1"/>
     </row>
     <row r="619" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B619" s="2">
-        <v>42272</v>
+        <v>42231</v>
       </c>
       <c r="C619" s="1"/>
     </row>
     <row r="620" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B620" s="2">
-        <v>42273</v>
+        <v>42232</v>
       </c>
       <c r="C620" s="1"/>
     </row>
     <row r="621" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B621" s="2">
-        <v>42274</v>
+        <v>42233</v>
       </c>
       <c r="C621" s="1"/>
     </row>
     <row r="622" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B622" s="2">
-        <v>42275</v>
+        <v>42234</v>
       </c>
       <c r="C622" s="1"/>
     </row>
     <row r="623" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B623" s="2">
-        <v>42276</v>
+        <v>42235</v>
       </c>
       <c r="C623" s="1"/>
     </row>
     <row r="624" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B624" s="2">
-        <v>42277</v>
+        <v>42236</v>
       </c>
       <c r="C624" s="1"/>
     </row>
     <row r="625" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B625" s="2">
-        <v>42278</v>
+        <v>42237</v>
       </c>
       <c r="C625" s="1"/>
     </row>
     <row r="626" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B626" s="2">
-        <v>42279</v>
+        <v>42238</v>
       </c>
       <c r="C626" s="1"/>
     </row>
     <row r="627" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B627" s="2">
-        <v>42280</v>
+        <v>42239</v>
       </c>
       <c r="C627" s="1"/>
     </row>
     <row r="628" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B628" s="2">
-        <v>42281</v>
+        <v>42240</v>
       </c>
       <c r="C628" s="1"/>
     </row>
     <row r="629" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B629" s="2">
-        <v>42282</v>
+        <v>42241</v>
       </c>
       <c r="C629" s="1"/>
     </row>
     <row r="630" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B630" s="2">
-        <v>42283</v>
+        <v>42242</v>
       </c>
       <c r="C630" s="1"/>
     </row>
     <row r="631" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B631" s="2">
-        <v>42284</v>
+        <v>42243</v>
       </c>
       <c r="C631" s="1"/>
     </row>
     <row r="632" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B632" s="2">
-        <v>42285</v>
+        <v>42244</v>
       </c>
       <c r="C632" s="1"/>
     </row>
     <row r="633" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B633" s="2">
-        <v>42286</v>
+        <v>42245</v>
       </c>
       <c r="C633" s="1"/>
     </row>
     <row r="634" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B634" s="2">
-        <v>42287</v>
+        <v>42246</v>
       </c>
       <c r="C634" s="1"/>
     </row>
     <row r="635" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B635" s="2">
-        <v>42288</v>
+        <v>42247</v>
       </c>
       <c r="C635" s="1"/>
     </row>
     <row r="636" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B636" s="2">
-        <v>42289</v>
+        <v>42248</v>
       </c>
       <c r="C636" s="1"/>
     </row>
     <row r="637" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B637" s="2">
-        <v>42290</v>
+        <v>42249</v>
       </c>
       <c r="C637" s="1"/>
     </row>
     <row r="638" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B638" s="2">
-        <v>42291</v>
+        <v>42250</v>
       </c>
       <c r="C638" s="1"/>
     </row>
     <row r="639" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B639" s="2">
-        <v>42292</v>
+        <v>42251</v>
       </c>
       <c r="C639" s="1"/>
     </row>
     <row r="640" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B640" s="2">
-        <v>42293</v>
+        <v>42252</v>
       </c>
       <c r="C640" s="1"/>
     </row>
     <row r="641" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B641" s="2">
-        <v>42294</v>
+        <v>42253</v>
       </c>
       <c r="C641" s="1"/>
     </row>
     <row r="642" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B642" s="2">
-        <v>42295</v>
+        <v>42254</v>
       </c>
       <c r="C642" s="1"/>
     </row>
     <row r="643" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B643" s="2">
-        <v>42296</v>
+        <v>42255</v>
       </c>
       <c r="C643" s="1"/>
     </row>
     <row r="644" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B644" s="2">
+        <v>42256</v>
+      </c>
+      <c r="C644" s="1"/>
+    </row>
+    <row r="645" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B645" s="2">
+        <v>42257</v>
+      </c>
+      <c r="C645" s="1"/>
+    </row>
+    <row r="646" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B646" s="2">
+        <v>42258</v>
+      </c>
+      <c r="C646" s="1"/>
+    </row>
+    <row r="647" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B647" s="2">
+        <v>42259</v>
+      </c>
+      <c r="C647" s="1"/>
+    </row>
+    <row r="648" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B648" s="2">
+        <v>42260</v>
+      </c>
+      <c r="C648" s="1"/>
+    </row>
+    <row r="649" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B649" s="2">
+        <v>42261</v>
+      </c>
+      <c r="C649" s="1"/>
+    </row>
+    <row r="650" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B650" s="2">
+        <v>42262</v>
+      </c>
+      <c r="C650" s="1"/>
+    </row>
+    <row r="651" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B651" s="2">
+        <v>42263</v>
+      </c>
+      <c r="C651" s="1"/>
+    </row>
+    <row r="652" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B652" s="2">
+        <v>42264</v>
+      </c>
+      <c r="C652" s="1"/>
+    </row>
+    <row r="653" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B653" s="2">
+        <v>42265</v>
+      </c>
+      <c r="C653" s="1"/>
+    </row>
+    <row r="654" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B654" s="2">
+        <v>42266</v>
+      </c>
+      <c r="C654" s="1"/>
+    </row>
+    <row r="655" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B655" s="2">
+        <v>42267</v>
+      </c>
+      <c r="C655" s="1"/>
+    </row>
+    <row r="656" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B656" s="2">
+        <v>42268</v>
+      </c>
+      <c r="C656" s="1"/>
+    </row>
+    <row r="657" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B657" s="2">
+        <v>42269</v>
+      </c>
+      <c r="C657" s="1"/>
+    </row>
+    <row r="658" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B658" s="2">
+        <v>42270</v>
+      </c>
+      <c r="C658" s="1"/>
+    </row>
+    <row r="659" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B659" s="2">
+        <v>42271</v>
+      </c>
+      <c r="C659" s="1"/>
+    </row>
+    <row r="660" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B660" s="2">
+        <v>42272</v>
+      </c>
+      <c r="C660" s="1"/>
+    </row>
+    <row r="661" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B661" s="2">
+        <v>42273</v>
+      </c>
+      <c r="C661" s="1"/>
+    </row>
+    <row r="662" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B662" s="2">
+        <v>42274</v>
+      </c>
+      <c r="C662" s="1"/>
+    </row>
+    <row r="663" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B663" s="2">
+        <v>42275</v>
+      </c>
+      <c r="C663" s="1"/>
+    </row>
+    <row r="664" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B664" s="2">
+        <v>42276</v>
+      </c>
+      <c r="C664" s="1"/>
+    </row>
+    <row r="665" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B665" s="2">
+        <v>42277</v>
+      </c>
+      <c r="C665" s="1"/>
+    </row>
+    <row r="666" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B666" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C666" s="1"/>
+    </row>
+    <row r="667" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B667" s="2">
+        <v>42279</v>
+      </c>
+      <c r="C667" s="1"/>
+    </row>
+    <row r="668" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B668" s="2">
+        <v>42280</v>
+      </c>
+      <c r="C668" s="1"/>
+    </row>
+    <row r="669" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B669" s="2">
+        <v>42281</v>
+      </c>
+      <c r="C669" s="1"/>
+    </row>
+    <row r="670" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B670" s="2">
+        <v>42282</v>
+      </c>
+      <c r="C670" s="1"/>
+    </row>
+    <row r="671" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B671" s="2">
+        <v>42283</v>
+      </c>
+      <c r="C671" s="1"/>
+    </row>
+    <row r="672" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B672" s="2">
+        <v>42284</v>
+      </c>
+      <c r="C672" s="1"/>
+    </row>
+    <row r="673" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B673" s="2">
+        <v>42285</v>
+      </c>
+      <c r="C673" s="1"/>
+    </row>
+    <row r="674" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B674" s="2">
+        <v>42286</v>
+      </c>
+      <c r="C674" s="1"/>
+    </row>
+    <row r="675" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B675" s="2">
+        <v>42287</v>
+      </c>
+      <c r="C675" s="1"/>
+    </row>
+    <row r="676" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B676" s="2">
+        <v>42288</v>
+      </c>
+      <c r="C676" s="1"/>
+    </row>
+    <row r="677" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B677" s="2">
+        <v>42289</v>
+      </c>
+      <c r="C677" s="1"/>
+    </row>
+    <row r="678" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B678" s="2">
+        <v>42290</v>
+      </c>
+      <c r="C678" s="1"/>
+    </row>
+    <row r="679" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B679" s="2">
+        <v>42291</v>
+      </c>
+      <c r="C679" s="1"/>
+    </row>
+    <row r="680" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B680" s="2">
+        <v>42292</v>
+      </c>
+      <c r="C680" s="1"/>
+    </row>
+    <row r="681" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B681" s="2">
+        <v>42293</v>
+      </c>
+      <c r="C681" s="1"/>
+    </row>
+    <row r="682" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B682" s="2">
+        <v>42294</v>
+      </c>
+      <c r="C682" s="1"/>
+    </row>
+    <row r="683" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B683" s="2">
+        <v>42295</v>
+      </c>
+      <c r="C683" s="1"/>
+    </row>
+    <row r="684" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B684" s="2">
+        <v>42296</v>
+      </c>
+      <c r="C684" s="1"/>
+    </row>
+    <row r="685" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B685" s="2">
         <v>42297</v>
       </c>
-      <c r="C644" s="1"/>
+      <c r="C685" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
